--- a/Tabela Roubada - Localização das lojas.xlsx
+++ b/Tabela Roubada - Localização das lojas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevyn\Desktop\USP\Estágio\Tower Three\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5789558B-84E3-41B1-8E69-91CC30DDAB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320D9464-EA1F-4886-8E0D-A58EB0CF16CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
   <si>
     <t>Estado</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>Atacarejo - Juazeiro</t>
-  </si>
-  <si>
-    <t>Avaliações</t>
   </si>
   <si>
     <t>Setor Bahia Sul</t>
@@ -512,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB9FCBE-587B-4A63-BEDE-514F6415D93D}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +527,7 @@
     <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -550,19 +547,13 @@
         <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -579,14 +570,14 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" t="str">
         <f>_xlfn.CONCAT(E2,", ",D2,", ",C2)</f>
         <v>Alto da Alianca, Juazeiro, Ba</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -600,146 +591,146 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G8" si="0">_xlfn.CONCAT(E3,", ",D3,", ",C3)</f>
         <v>Setor Bahia Sul, Teixeira de freitas, Ba</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
         <v>Sambaíba, Floriano, PI</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
         <v>Reis Veloso, Parnaíba, PI</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
         <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
         <v>Morro da Saudade, Piripiri, PI</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>44</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>45</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
         <v>Parque São João, Teresina, PI</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
         <v>50</v>
       </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
         <v>Uruguai, Teresina, PI</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Tabela Roubada - Localização das lojas.xlsx
+++ b/Tabela Roubada - Localização das lojas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevyn\Desktop\USP\Estágio\Tower Three\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320D9464-EA1F-4886-8E0D-A58EB0CF16CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314DEB50-3992-4144-B536-D7EF2860C85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3030" windowWidth="19200" windowHeight="6480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="190">
   <si>
     <t>Estado</t>
   </si>
@@ -192,6 +192,420 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Aracaju</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>Petrolina</t>
+  </si>
+  <si>
+    <t>Abaetetuba</t>
+  </si>
+  <si>
+    <t>Altamira</t>
+  </si>
+  <si>
+    <t>Ananindeua</t>
+  </si>
+  <si>
+    <t>Barcarena</t>
+  </si>
+  <si>
+    <t>Belem</t>
+  </si>
+  <si>
+    <t>Bragança</t>
+  </si>
+  <si>
+    <t>Canaã dos carajás</t>
+  </si>
+  <si>
+    <t>Capanema</t>
+  </si>
+  <si>
+    <t>Castanhal</t>
+  </si>
+  <si>
+    <t>Conceição do Araguaia</t>
+  </si>
+  <si>
+    <t>Dom Eliseu</t>
+  </si>
+  <si>
+    <t>Goianésia</t>
+  </si>
+  <si>
+    <t>Itupiranga</t>
+  </si>
+  <si>
+    <t>Jacundá</t>
+  </si>
+  <si>
+    <t>Marabá</t>
+  </si>
+  <si>
+    <t>Marituba</t>
+  </si>
+  <si>
+    <t>Maragominas</t>
+  </si>
+  <si>
+    <t>Parauapebas</t>
+  </si>
+  <si>
+    <t>Redenção</t>
+  </si>
+  <si>
+    <t>Rondon do Pará</t>
+  </si>
+  <si>
+    <t>São Miguel do Guamá</t>
+  </si>
+  <si>
+    <t>Tailândia</t>
+  </si>
+  <si>
+    <t>Tomé-Açu</t>
+  </si>
+  <si>
+    <t>Tucumã</t>
+  </si>
+  <si>
+    <t>Tucuruí</t>
+  </si>
+  <si>
+    <t>Pa</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>Açailandia</t>
+  </si>
+  <si>
+    <t>Arari</t>
+  </si>
+  <si>
+    <t>Bacabal</t>
+  </si>
+  <si>
+    <t>Balsas</t>
+  </si>
+  <si>
+    <t>Barra do Corda</t>
+  </si>
+  <si>
+    <t>Barreirinhas</t>
+  </si>
+  <si>
+    <t>Buriticupu</t>
+  </si>
+  <si>
+    <t>Carolina</t>
+  </si>
+  <si>
+    <t>Caxias</t>
+  </si>
+  <si>
+    <t>Chapadinha</t>
+  </si>
+  <si>
+    <t>Codó</t>
+  </si>
+  <si>
+    <t>Colinas</t>
+  </si>
+  <si>
+    <t>Coroatá</t>
+  </si>
+  <si>
+    <t>Cururupu</t>
+  </si>
+  <si>
+    <t>Estreito</t>
+  </si>
+  <si>
+    <t>Grajaú</t>
+  </si>
+  <si>
+    <t>Imperatriz</t>
+  </si>
+  <si>
+    <t>Itapecuru</t>
+  </si>
+  <si>
+    <t>Itinga do Maranhão</t>
+  </si>
+  <si>
+    <t>Lago da Pedra</t>
+  </si>
+  <si>
+    <t>Miranda do Norte</t>
+  </si>
+  <si>
+    <t>Pedreiras</t>
+  </si>
+  <si>
+    <t>Pinheiro</t>
+  </si>
+  <si>
+    <t>Presidente Dutra</t>
+  </si>
+  <si>
+    <t>Rosário</t>
+  </si>
+  <si>
+    <t>Santa Helena</t>
+  </si>
+  <si>
+    <t>Santa Inês</t>
+  </si>
+  <si>
+    <t>Santa Luzia</t>
+  </si>
+  <si>
+    <t>Santa Rita</t>
+  </si>
+  <si>
+    <t>São Bento</t>
+  </si>
+  <si>
+    <t>São José de Ribamar</t>
+  </si>
+  <si>
+    <t>São Luís</t>
+  </si>
+  <si>
+    <t>Timon</t>
+  </si>
+  <si>
+    <t>Tutóia</t>
+  </si>
+  <si>
+    <t>Urbano Santos</t>
+  </si>
+  <si>
+    <t>Vargem Grande</t>
+  </si>
+  <si>
+    <t>Viana</t>
+  </si>
+  <si>
+    <t>Vitorino Freire</t>
+  </si>
+  <si>
+    <t>Zé Doca</t>
+  </si>
+  <si>
+    <t>Coqueiro 40h</t>
+  </si>
+  <si>
+    <t>Mário Covas</t>
+  </si>
+  <si>
+    <t>Bengui</t>
+  </si>
+  <si>
+    <t>Icoaraci</t>
+  </si>
+  <si>
+    <t>Pedreira</t>
+  </si>
+  <si>
+    <t>Marabá Cidade Nova</t>
+  </si>
+  <si>
+    <t>Nova Marabá</t>
+  </si>
+  <si>
+    <t>Paragominas</t>
+  </si>
+  <si>
+    <t>Parauapebas Nova Carajás</t>
+  </si>
+  <si>
+    <t>Parque Carajás</t>
+  </si>
+  <si>
+    <t>Açaiândia</t>
+  </si>
+  <si>
+    <t>Jaderlândia</t>
+  </si>
+  <si>
+    <t>Açailândia</t>
+  </si>
+  <si>
+    <t>Canaã dos Carajás</t>
+  </si>
+  <si>
+    <t>Marambaia</t>
+  </si>
+  <si>
+    <t>Maguari</t>
+  </si>
+  <si>
+    <t>Camiño Supermercados</t>
+  </si>
+  <si>
+    <t>Conceição do Araguiaia</t>
+  </si>
+  <si>
+    <t>Eldorado</t>
+  </si>
+  <si>
+    <t>Jardim Primavera</t>
+  </si>
+  <si>
+    <t>Goianésia do Pará</t>
+  </si>
+  <si>
+    <t>São Felix</t>
+  </si>
+  <si>
+    <t>Hipermercado Mateus</t>
+  </si>
+  <si>
+    <t>Supermercados Mateus</t>
+  </si>
+  <si>
+    <t>Babaçulândia</t>
+  </si>
+  <si>
+    <t>Bacuri</t>
+  </si>
+  <si>
+    <t>Tamandaré</t>
+  </si>
+  <si>
+    <t>Goiás</t>
+  </si>
+  <si>
+    <t>Rua Ceará</t>
+  </si>
+  <si>
+    <t>Itinga</t>
+  </si>
+  <si>
+    <t>Ruana</t>
+  </si>
+  <si>
+    <t>Carcará</t>
+  </si>
+  <si>
+    <t>Maiobão</t>
+  </si>
+  <si>
+    <t>Ubatuba</t>
+  </si>
+  <si>
+    <t>Anjo da Guarda</t>
+  </si>
+  <si>
+    <t>Divinéia</t>
+  </si>
+  <si>
+    <t>Itapiracó</t>
+  </si>
+  <si>
+    <t>Maranhão Novo</t>
+  </si>
+  <si>
+    <t>São Bernardo</t>
+  </si>
+  <si>
+    <t>São Cristóvão</t>
+  </si>
+  <si>
+    <t>Araçagy</t>
+  </si>
+  <si>
+    <t>Forquilha</t>
+  </si>
+  <si>
+    <t>Jardim Tropical</t>
+  </si>
+  <si>
+    <t>João Paulo</t>
+  </si>
+  <si>
+    <t>Tirirical</t>
+  </si>
+  <si>
+    <t>Vinhais</t>
+  </si>
+  <si>
+    <t>Renanscença</t>
+  </si>
+  <si>
+    <t>Anil</t>
+  </si>
+  <si>
+    <t>Bacanga</t>
+  </si>
+  <si>
+    <t>Calhau</t>
+  </si>
+  <si>
+    <t>Centro Cajazeiras</t>
+  </si>
+  <si>
+    <t>Cidade Operária</t>
+  </si>
+  <si>
+    <t>Cohab</t>
+  </si>
+  <si>
+    <t>Cohama</t>
+  </si>
+  <si>
+    <t>Cohatrac</t>
+  </si>
+  <si>
+    <t>Cohatrack IV</t>
+  </si>
+  <si>
+    <t>Rio Anil Shopping</t>
+  </si>
+  <si>
+    <t>Shopping da Ilha</t>
+  </si>
+  <si>
+    <t>Shopping Pátio Norte</t>
+  </si>
+  <si>
+    <t>Turu</t>
+  </si>
+  <si>
+    <t>Turuzinho</t>
+  </si>
+  <si>
+    <t>Avenida Piaui</t>
+  </si>
+  <si>
+    <t>Parque Alvorada</t>
+  </si>
+  <si>
+    <t>Tutória</t>
+  </si>
+  <si>
+    <t>Ce</t>
+  </si>
+  <si>
+    <t>Itapipoca</t>
+  </si>
+  <si>
+    <t>Sobral</t>
+  </si>
+  <si>
+    <t>Tianguá</t>
   </si>
 </sst>
 </file>
@@ -227,8 +641,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,22 +924,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB9FCBE-587B-4A63-BEDE-514F6415D93D}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="45.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.7109375" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -731,6 +1146,1700 @@
       </c>
       <c r="H8" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>144</v>
+      </c>
+      <c r="B53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B64" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" t="s">
+        <v>98</v>
+      </c>
+      <c r="C66" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" t="s">
+        <v>82</v>
+      </c>
+      <c r="D70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" t="s">
+        <v>82</v>
+      </c>
+      <c r="D71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B73" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B76" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" t="s">
+        <v>82</v>
+      </c>
+      <c r="D78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" t="s">
+        <v>106</v>
+      </c>
+      <c r="C79" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B80" t="s">
+        <v>107</v>
+      </c>
+      <c r="C80" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B81" t="s">
+        <v>108</v>
+      </c>
+      <c r="C81" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B82" t="s">
+        <v>153</v>
+      </c>
+      <c r="C82" t="s">
+        <v>82</v>
+      </c>
+      <c r="D82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" t="s">
+        <v>109</v>
+      </c>
+      <c r="C83" t="s">
+        <v>82</v>
+      </c>
+      <c r="D83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B85" t="s">
+        <v>110</v>
+      </c>
+      <c r="C85" t="s">
+        <v>82</v>
+      </c>
+      <c r="D85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B86" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" t="s">
+        <v>82</v>
+      </c>
+      <c r="D86" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B87" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" t="s">
+        <v>82</v>
+      </c>
+      <c r="D87" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B88" t="s">
+        <v>113</v>
+      </c>
+      <c r="C88" t="s">
+        <v>82</v>
+      </c>
+      <c r="D88" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" t="s">
+        <v>154</v>
+      </c>
+      <c r="C89" t="s">
+        <v>82</v>
+      </c>
+      <c r="D89" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" t="s">
+        <v>155</v>
+      </c>
+      <c r="C90" t="s">
+        <v>82</v>
+      </c>
+      <c r="D90" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B91" t="s">
+        <v>156</v>
+      </c>
+      <c r="C91" t="s">
+        <v>82</v>
+      </c>
+      <c r="D91" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B92" t="s">
+        <v>157</v>
+      </c>
+      <c r="C92" t="s">
+        <v>82</v>
+      </c>
+      <c r="D92" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B93" t="s">
+        <v>158</v>
+      </c>
+      <c r="C93" t="s">
+        <v>82</v>
+      </c>
+      <c r="D93" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B94" t="s">
+        <v>159</v>
+      </c>
+      <c r="C94" t="s">
+        <v>82</v>
+      </c>
+      <c r="D94" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B95" t="s">
+        <v>160</v>
+      </c>
+      <c r="C95" t="s">
+        <v>82</v>
+      </c>
+      <c r="D95" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B96" t="s">
+        <v>161</v>
+      </c>
+      <c r="C96" t="s">
+        <v>82</v>
+      </c>
+      <c r="D96" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" t="s">
+        <v>162</v>
+      </c>
+      <c r="C97" t="s">
+        <v>82</v>
+      </c>
+      <c r="D97" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
+        <v>163</v>
+      </c>
+      <c r="C98" t="s">
+        <v>82</v>
+      </c>
+      <c r="D98" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>164</v>
+      </c>
+      <c r="C99" t="s">
+        <v>82</v>
+      </c>
+      <c r="D99" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" t="s">
+        <v>165</v>
+      </c>
+      <c r="C100" t="s">
+        <v>82</v>
+      </c>
+      <c r="D100" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" t="s">
+        <v>166</v>
+      </c>
+      <c r="C101" t="s">
+        <v>82</v>
+      </c>
+      <c r="D101" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" t="s">
+        <v>167</v>
+      </c>
+      <c r="C102" t="s">
+        <v>82</v>
+      </c>
+      <c r="D102" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" t="s">
+        <v>168</v>
+      </c>
+      <c r="C103" t="s">
+        <v>82</v>
+      </c>
+      <c r="D103" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B104" t="s">
+        <v>169</v>
+      </c>
+      <c r="C104" t="s">
+        <v>82</v>
+      </c>
+      <c r="D104" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B105" t="s">
+        <v>170</v>
+      </c>
+      <c r="C105" t="s">
+        <v>82</v>
+      </c>
+      <c r="D105" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B106" t="s">
+        <v>171</v>
+      </c>
+      <c r="C106" t="s">
+        <v>82</v>
+      </c>
+      <c r="D106" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B107" t="s">
+        <v>172</v>
+      </c>
+      <c r="C107" t="s">
+        <v>82</v>
+      </c>
+      <c r="D107" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B108" t="s">
+        <v>173</v>
+      </c>
+      <c r="C108" t="s">
+        <v>82</v>
+      </c>
+      <c r="D108" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B109" t="s">
+        <v>174</v>
+      </c>
+      <c r="C109" t="s">
+        <v>82</v>
+      </c>
+      <c r="D109" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B110" t="s">
+        <v>175</v>
+      </c>
+      <c r="C110" t="s">
+        <v>82</v>
+      </c>
+      <c r="D110" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B111" t="s">
+        <v>176</v>
+      </c>
+      <c r="C111" t="s">
+        <v>82</v>
+      </c>
+      <c r="D111" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B112" t="s">
+        <v>177</v>
+      </c>
+      <c r="C112" t="s">
+        <v>82</v>
+      </c>
+      <c r="D112" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B113" t="s">
+        <v>178</v>
+      </c>
+      <c r="C113" t="s">
+        <v>82</v>
+      </c>
+      <c r="D113" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B114" t="s">
+        <v>161</v>
+      </c>
+      <c r="C114" t="s">
+        <v>82</v>
+      </c>
+      <c r="D114" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B115" t="s">
+        <v>179</v>
+      </c>
+      <c r="C115" t="s">
+        <v>82</v>
+      </c>
+      <c r="D115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B116" t="s">
+        <v>180</v>
+      </c>
+      <c r="C116" t="s">
+        <v>82</v>
+      </c>
+      <c r="D116" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B117" t="s">
+        <v>181</v>
+      </c>
+      <c r="C117" t="s">
+        <v>82</v>
+      </c>
+      <c r="D117" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B118" t="s">
+        <v>182</v>
+      </c>
+      <c r="C118" t="s">
+        <v>82</v>
+      </c>
+      <c r="D118" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" t="s">
+        <v>183</v>
+      </c>
+      <c r="C119" t="s">
+        <v>82</v>
+      </c>
+      <c r="D119" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" t="s">
+        <v>184</v>
+      </c>
+      <c r="C120" t="s">
+        <v>82</v>
+      </c>
+      <c r="D120" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B121" t="s">
+        <v>185</v>
+      </c>
+      <c r="C121" t="s">
+        <v>82</v>
+      </c>
+      <c r="D121" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B122" t="s">
+        <v>117</v>
+      </c>
+      <c r="C122" t="s">
+        <v>82</v>
+      </c>
+      <c r="D122" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B123" t="s">
+        <v>118</v>
+      </c>
+      <c r="C123" t="s">
+        <v>82</v>
+      </c>
+      <c r="D123" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B124" t="s">
+        <v>119</v>
+      </c>
+      <c r="C124" t="s">
+        <v>82</v>
+      </c>
+      <c r="D124" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B125" t="s">
+        <v>120</v>
+      </c>
+      <c r="C125" t="s">
+        <v>82</v>
+      </c>
+      <c r="D125" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B126" t="s">
+        <v>121</v>
+      </c>
+      <c r="C126" t="s">
+        <v>82</v>
+      </c>
+      <c r="D126" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" t="s">
+        <v>187</v>
+      </c>
+      <c r="C127" t="s">
+        <v>186</v>
+      </c>
+      <c r="D127" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" t="s">
+        <v>188</v>
+      </c>
+      <c r="C128" t="s">
+        <v>186</v>
+      </c>
+      <c r="D128" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" t="s">
+        <v>189</v>
+      </c>
+      <c r="C129" t="s">
+        <v>186</v>
+      </c>
+      <c r="D129" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
